--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value159.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value159.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.095616134481937</v>
+        <v>3.660594940185547</v>
       </c>
       <c r="B1">
-        <v>1.726243319692792</v>
+        <v>3.721952676773071</v>
       </c>
       <c r="C1">
-        <v>2.058685624549094</v>
+        <v>2.881871461868286</v>
       </c>
       <c r="D1">
-        <v>2.260829064932824</v>
+        <v>2.756474733352661</v>
       </c>
       <c r="E1">
-        <v>1.796175533679872</v>
+        <v>2.52364706993103</v>
       </c>
     </row>
   </sheetData>
